--- a/EmcReportWebApi/Document/buglist.xlsx
+++ b/EmcReportWebApi/Document/buglist.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\EmcWebApi\EmcReportWebApi\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6348916C-DEF1-4C61-B1B8-47F05D3B19D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
+  </si>
+  <si>
+    <t>列9</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐波实验 rtf文件内容 表格最后一列pass修改为符合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历表格单元格可以实现 效率慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验数据需要分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不太好看现在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页符需要用wdSectionBreakNextPage这个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +135,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FB812EE-862E-4592-90D1-4063A2FD3497}" name="表1" displayName="表1" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{BCB26F73-BA44-4380-B9AE-869D3903E601}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8D5AD440-0AD4-4195-906C-526AC320224C}" name="序号"/>
+    <tableColumn id="2" xr3:uid="{064072DD-D445-4679-8155-3ECAAC168B12}" name="问题描述"/>
+    <tableColumn id="3" xr3:uid="{E43C54F4-2D48-4988-A08E-E4EC156F8D40}" name="备注"/>
+    <tableColumn id="4" xr3:uid="{0F95A8D5-E757-4434-9CF1-D6DA1C8DA893}" name="解决方案"/>
+    <tableColumn id="5" xr3:uid="{5E927B3F-3492-4AF1-B93D-0B4F48FE9162}" name="列5"/>
+    <tableColumn id="6" xr3:uid="{AD41DF49-43D9-4857-A8A4-12F28970FDCC}" name="列6"/>
+    <tableColumn id="7" xr3:uid="{9D22037B-5173-4314-B8A0-FBDD0F25CD78}" name="列7"/>
+    <tableColumn id="8" xr3:uid="{151B8F90-3FC3-43E3-B65C-319E0C327A2E}" name="列8"/>
+    <tableColumn id="9" xr3:uid="{9970A12C-BF1E-441A-9D20-E6AA4177FF5E}" name="列9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +417,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>